--- a/plc_ref_template.xlsx
+++ b/plc_ref_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5243D07-C683-4F20-B5D6-628EDC7BA1DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5999C6-2917-4780-AC63-1B7A3E0A0F35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{67DF786B-4285-48EA-8D7B-B647AE578CD4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14028" xr2:uid="{67DF786B-4285-48EA-8D7B-B647AE578CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Bogen_Nummer</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
   </si>
 </sst>
 </file>
@@ -104,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,21 +425,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F05D678-F613-4ACA-80CC-7EDFC0B18684}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,6 +467,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
